--- a/inserter matrix grid.xlsx
+++ b/inserter matrix grid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgroo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmi\Factorio\mods\Smart_Inserters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C1948-467D-4477-AC27-F49357119A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6CC28-34CB-4754-8079-6240A2DAFD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{E81C8135-44D0-4EB9-9E1C-4444AED6FB00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E81C8135-44D0-4EB9-9E1C-4444AED6FB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F05024-3DE7-4DB5-95AC-0A617790F20D}">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
